--- a/AzurePowerShell/dev/SnapShot-Backup-withStorage/docs.xlsx
+++ b/AzurePowerShell/dev/SnapShot-Backup-withStorage/docs.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PowerShell\PowerShell\AzurePowerShell\dev\SnapShot-Backup-withStorage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EB217C-C744-43C0-A660-4716122E0799}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F734DCFA-C130-4ABC-9B2E-DFB66F4D0E06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{DB082AED-441E-4FE5-B009-7675A2B43042}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{DB082AED-441E-4FE5-B009-7675A2B43042}"/>
   </bookViews>
   <sheets>
     <sheet name="ps1 스크립트" sheetId="3" r:id="rId1"/>
     <sheet name="snapshotlib" sheetId="1" r:id="rId2"/>
-    <sheet name="공통" sheetId="2" r:id="rId3"/>
-    <sheet name="테이블 정보" sheetId="4" r:id="rId4"/>
+    <sheet name="storagequery" sheetId="5" r:id="rId3"/>
+    <sheet name="공통" sheetId="2" r:id="rId4"/>
+    <sheet name="테이블 정보" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="69">
   <si>
     <t>Method</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테이블 생성 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>백업할 Disk 목록이 적힌 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,6 +241,74 @@
   </si>
   <si>
     <t>최종 테이블, 현재 저장중인 디스크 목록이 출력됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encryptedSAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리소스 그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암호화된 SAS URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 생성시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revokeSnapshotSAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encryptedSASs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkTransationStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectByTableName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteByTableName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>removePastSnapshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>removePastSnapshotVHD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteByDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,7 +437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -382,6 +447,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -390,15 +470,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -723,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBC3A8A-91F2-459F-8893-5F9E010A6188}">
-  <dimension ref="B2:G18"/>
+  <dimension ref="B2:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -750,16 +821,16 @@
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="3" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -771,7 +842,7 @@
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
         <v>1</v>
       </c>
@@ -789,7 +860,7 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
@@ -801,7 +872,7 @@
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
@@ -813,7 +884,7 @@
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
@@ -825,7 +896,7 @@
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
@@ -833,7 +904,7 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
@@ -848,16 +919,16 @@
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="3" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
@@ -869,7 +940,7 @@
       <c r="D14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="2" t="s">
         <v>1</v>
       </c>
@@ -887,7 +958,7 @@
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
@@ -899,7 +970,7 @@
       <c r="D16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
@@ -911,7 +982,7 @@
       <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
@@ -919,18 +990,273 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="6"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="15">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:G31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -939,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADD0F32-8320-4399-8130-94A57B15298D}">
-  <dimension ref="B2:G20"/>
+  <dimension ref="B2:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -956,16 +1282,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="3" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
@@ -977,7 +1303,7 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
@@ -995,7 +1321,7 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1011,7 +1337,7 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
@@ -1019,162 +1345,298 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="6"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="5"/>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>3</v>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="6"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="3" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="6"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="B20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:G14"/>
+  <mergeCells count="10">
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="F20:G20"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:G8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1183,6 +1645,402 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDC7859-81E8-427E-AFEE-6876755C672E}">
+  <dimension ref="B2:G30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="5" max="5" width="4.25" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:G14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127A9065-0862-4F7A-9D1D-E1D6532E2B1A}">
   <dimension ref="B2:G14"/>
   <sheetViews>
@@ -1201,16 +2059,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="3" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
@@ -1222,7 +2080,7 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1240,7 +2098,7 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1256,7 +2114,7 @@
       <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
@@ -1268,7 +2126,7 @@
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
@@ -1276,21 +2134,21 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="6"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="3" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -1302,7 +2160,7 @@
       <c r="D10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1320,7 +2178,7 @@
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1336,7 +2194,7 @@
       <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
@@ -1348,7 +2206,7 @@
       <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
@@ -1356,7 +2214,7 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="6"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
@@ -1372,19 +2230,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B69FDDB-E0A4-44E4-97D3-F2EE450EF361}">
-  <dimension ref="B2:I36"/>
+  <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.625" customWidth="1"/>
     <col min="8" max="8" width="12.875" customWidth="1"/>
     <col min="9" max="9" width="33.375" bestFit="1" customWidth="1"/>
@@ -1397,20 +2255,20 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
       <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
@@ -1475,7 +2333,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -1486,10 +2344,12 @@
       <c r="B8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -1517,12 +2377,12 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
@@ -1569,7 +2429,7 @@
         <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
@@ -1580,25 +2440,27 @@
       <c r="B20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
@@ -1611,12 +2473,12 @@
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
@@ -1628,74 +2490,160 @@
       <c r="D26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="2" t="s">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B37:E37"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B36:E36"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B25:E25"/>
   </mergeCells>
